--- a/data/Diabetic Patients' Re-admission Prediction/info.xlsx
+++ b/data/Diabetic Patients' Re-admission Prediction/info.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirna Elizondo\OneDrive - Texas State University\Desktop\PersonalRepo\DiabetesProject\DiabetesProject\data\Diabetic Patients' Re-admission Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFCBD33A-7C45-42EE-8B72-B3DD633FBBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B55BD19-E2E6-4F49-A6B5-530C1922DF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11442" yWindow="0" windowWidth="11676" windowHeight="13758" activeTab="1"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9984" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDs_mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="DataDictionary" sheetId="2" r:id="rId2"/>
+    <sheet name="Model Scores" sheetId="3" r:id="rId2"/>
+    <sheet name="DataDictionary" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="142">
   <si>
     <t>admission_type_id</t>
   </si>
@@ -407,12 +408,57 @@
   </si>
   <si>
     <t>Created into a Boolean</t>
+  </si>
+  <si>
+    <t>RandomForestClassifier</t>
+  </si>
+  <si>
+    <t>GradientBoostingClassifier</t>
+  </si>
+  <si>
+    <t>XGBClassifier</t>
+  </si>
+  <si>
+    <t>LGBMClassifier</t>
+  </si>
+  <si>
+    <t>CatBoostClassifier</t>
+  </si>
+  <si>
+    <t>Tensor(4-Hidden)(0.3)</t>
+  </si>
+  <si>
+    <t>Tensor(4-Hidden)(0.5)</t>
+  </si>
+  <si>
+    <t>Tensor(4-Hidden)(0.7)</t>
+  </si>
+  <si>
+    <t>Tensor(4-Hidden)(0.9)</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -896,7 +942,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -912,6 +958,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1266,10 +1313,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="79" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -1809,11 +1856,202 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45060183-FD55-4B2E-9E42-7BEEA18C5FEC}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="21.62890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.605927051671732</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.60532150776053195</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.58655616942909705</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.59579111457521405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.61808510638297798</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.61761919797915998</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.60036832412523</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.60887159533073898</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.60440729483282596</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0.601866251944012</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.59392265193370097</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.59786806735671205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.61595744680850995</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0.61673586713509998</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.59269490484960097</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.60447644388793198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.613069908814589</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.61272957568080999</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0.59392265193370097</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0.60317955112219401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0.55471124620060697</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0.53088512241054597</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0.86525475751994996</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0.65802987861811302</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0.59665653495440696</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.62657166806370401</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0.45887047268262698</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0.52976612331679596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.55638297872340403</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.74318507890961205</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0.15899324739103701</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.26194690265486698</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0.51352583586626099</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0.85185185185185097</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2.1178637200736601E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4.1329739442946899E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/data/Diabetic Patients' Re-admission Prediction/info.xlsx
+++ b/data/Diabetic Patients' Re-admission Prediction/info.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirna Elizondo\OneDrive - Texas State University\Desktop\PersonalRepo\DiabetesProject\DiabetesProject\data\Diabetic Patients' Re-admission Prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B55BD19-E2E6-4F49-A6B5-530C1922DF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1595436A-45D7-4308-B86D-6E1186E4EA9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9984" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21945" yWindow="12870" windowWidth="17280" windowHeight="9990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDs_mapping" sheetId="1" r:id="rId1"/>
-    <sheet name="Model Scores" sheetId="3" r:id="rId2"/>
-    <sheet name="DataDictionary" sheetId="2" r:id="rId3"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId2"/>
+    <sheet name="Model Scores" sheetId="3" r:id="rId3"/>
+    <sheet name="DataDictionary" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="171">
   <si>
     <t>admission_type_id</t>
   </si>
@@ -450,6 +451,93 @@
   </si>
   <si>
     <t>F1</t>
+  </si>
+  <si>
+    <t>&gt;200</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>AfricanAmerican</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Caucasian</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>[0-10)</t>
+  </si>
+  <si>
+    <t>[0-25)</t>
+  </si>
+  <si>
+    <t>[10-20)</t>
+  </si>
+  <si>
+    <t>[100-125)</t>
+  </si>
+  <si>
+    <t>[125-150)</t>
+  </si>
+  <si>
+    <t>[150-175)</t>
+  </si>
+  <si>
+    <t>[175-200)</t>
+  </si>
+  <si>
+    <t>[20-30)</t>
+  </si>
+  <si>
+    <t>[25-50)</t>
+  </si>
+  <si>
+    <t>[30-40)</t>
+  </si>
+  <si>
+    <t>[40-50)</t>
+  </si>
+  <si>
+    <t>[50-60)</t>
+  </si>
+  <si>
+    <t>[50-75)</t>
+  </si>
+  <si>
+    <t>[60-70)</t>
+  </si>
+  <si>
+    <t>[70-80)</t>
+  </si>
+  <si>
+    <t>[75-100)</t>
+  </si>
+  <si>
+    <t>[80-90)</t>
+  </si>
+  <si>
+    <t>[90-100)</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -457,7 +545,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -782,7 +870,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -897,6 +985,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -942,7 +1054,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -958,7 +1070,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1316,7 +1437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
@@ -1856,11 +1977,312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9498AB96-5BBE-4043-BFCE-636B64B24E95}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="17.5234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="9">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10"/>
+      <c r="B3" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="9">
+        <v>19210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="9">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10"/>
+      <c r="B6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="9">
+        <v>76099</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="9">
+        <v>54708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10"/>
+      <c r="B9" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="9">
+        <v>47055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10"/>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="9">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10"/>
+      <c r="B12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="9">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="10"/>
+      <c r="B13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10"/>
+      <c r="B14" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="9">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="10"/>
+      <c r="B15" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="9">
+        <v>9685</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10"/>
+      <c r="B16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C16" s="9">
+        <v>17256</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="10"/>
+      <c r="B17" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="9">
+        <v>22483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10"/>
+      <c r="B18" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="9">
+        <v>26068</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10"/>
+      <c r="B19" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C19" s="9">
+        <v>17197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10"/>
+      <c r="B20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10"/>
+      <c r="B22" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="9">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="10"/>
+      <c r="B23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="9">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="10"/>
+      <c r="B24" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="10"/>
+      <c r="B25" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C25" s="9">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10"/>
+      <c r="B26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="9">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="10"/>
+      <c r="B27" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C27" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="10"/>
+      <c r="B29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="10"/>
+      <c r="B30" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="9">
+        <v>98569</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45060183-FD55-4B2E-9E42-7BEEA18C5FEC}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2046,12 +2468,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
